--- a/PZIOT.Api/wwwroot/BlogCore.Data.excel/SysUserInfo.xlsx
+++ b/PZIOT.Api/wwwroot/BlogCore.Data.excel/SysUserInfo.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\sec-file\he\anjoy8\Blog.Core\Blog.Core.Api\wwwroot\BlogCore.Data.excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B97D6CB-A14F-4083-8762-8398F8218F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37230" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="导出结果" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>LoginName</t>
   </si>
@@ -43,6 +37,12 @@
     <t>CreateTime</t>
   </si>
   <si>
+    <t>UpdateTime</t>
+  </si>
+  <si>
+    <t>CriticalModifyTime</t>
+  </si>
+  <si>
     <t>LastErrorTime</t>
   </si>
   <si>
@@ -88,10 +88,7 @@
     <t>2AEFC34200A294A3CC7DB81B43A81873</t>
   </si>
   <si>
-    <t>老张</t>
-  </si>
-  <si>
-    <t>老张的哲学</t>
+    <t>pziot</t>
   </si>
   <si>
     <t>否</t>
@@ -164,56 +161,383 @@
   </si>
   <si>
     <t>Kawhi 测试员</t>
-  </si>
-  <si>
-    <t>CriticalModifyTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\'&quot;年&quot;\'m\'&quot;月&quot;\'d\'&quot;日&quot;\'\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,28 +545,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -291,7 +901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,26 +934,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -376,23 +969,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,124 +1110,118 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr applyStyles="1"/>
   </sheetPr>
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="10" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="37.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="14.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
+    <col min="7" max="10" width="24.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="13.2857142857143" customWidth="1"/>
+    <col min="13" max="14" width="9.14285714285714" customWidth="1"/>
+    <col min="15" max="15" width="24.8571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.14285714285714" customWidth="1"/>
+    <col min="17" max="17" width="9.85714285714286" customWidth="1"/>
+    <col min="18" max="18" width="11.5714285714286" customWidth="1"/>
+    <col min="19" max="19" width="9.14285714285714" customWidth="1"/>
+    <col min="20" max="20" width="17.7142857142857" customWidth="1"/>
+    <col min="21" max="22" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -659,23 +1229,23 @@
       <c r="E2">
         <v>-1</v>
       </c>
-      <c r="G2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I2" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="G2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J2" s="1">
         <v>43466</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -683,25 +1253,25 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>43466</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -709,16 +1279,16 @@
       <c r="E3">
         <v>-1</v>
       </c>
-      <c r="G3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="G3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J3" s="1">
         <v>43466</v>
       </c>
       <c r="K3">
@@ -730,25 +1300,25 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>43466</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -756,23 +1326,23 @@
       <c r="E4">
         <v>-1</v>
       </c>
-      <c r="G4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="G4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J4" s="1">
         <v>43466</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -780,25 +1350,25 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>43466</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -806,16 +1376,16 @@
       <c r="E5">
         <v>-1</v>
       </c>
-      <c r="G5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="G5" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J5" s="1">
         <v>43466</v>
       </c>
       <c r="K5">
@@ -827,25 +1397,25 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>43466</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -853,16 +1423,16 @@
       <c r="E6">
         <v>-1</v>
       </c>
-      <c r="G6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I6" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="G6" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J6" s="1">
         <v>43466</v>
       </c>
       <c r="K6">
@@ -874,25 +1444,25 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>43466</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -900,23 +1470,23 @@
       <c r="E7">
         <v>-1</v>
       </c>
-      <c r="G7" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="G7" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J7" s="1">
         <v>43466</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -924,25 +1494,25 @@
       <c r="N7">
         <v>3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>43466</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -951,18 +1521,18 @@
         <v>-1</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I8" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J8" s="2">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J8" s="1">
         <v>43466</v>
       </c>
       <c r="K8">
@@ -974,25 +1544,25 @@
       <c r="N8">
         <v>10</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>43466</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1000,16 +1570,16 @@
       <c r="E9">
         <v>-1</v>
       </c>
-      <c r="G9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I9" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="G9" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J9" s="1">
         <v>43466</v>
       </c>
       <c r="K9">
@@ -1021,28 +1591,28 @@
       <c r="N9">
         <v>12</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <v>43466</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1051,18 +1621,18 @@
         <v>-1</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="I10" s="2">
-        <v>43466</v>
-      </c>
-      <c r="J10" s="2">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43466</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43466</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43466</v>
+      </c>
+      <c r="J10" s="1">
         <v>43466</v>
       </c>
       <c r="K10">
@@ -1074,19 +1644,19 @@
       <c r="N10">
         <v>18</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <v>43466</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>